--- a/Hospital_PowerBI_Project_Plan new.xlsx
+++ b/Hospital_PowerBI_Project_Plan new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ishan_IMP\GitHub Desktop files\Capstone_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321E2618-2B3F-4AB2-A314-2A71AB68C404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075B8E5-DBA3-4C79-B4C2-45779DE5B70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase_Task_Breakdown" sheetId="1" r:id="rId1"/>
@@ -484,20 +484,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">dentify primary key FacilityID
+      <t>dentify primary key FacilityID
  Create Hospital table with cleaned columns
  Create and link lookup tables
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Build bridge/unpivot for domain-level measures if needed.</t>
+ Build bridge/unpivot for domain-level measures if needed.</t>
     </r>
   </si>
 </sst>
@@ -892,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,6 +1104,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
